--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -52,46 +52,52 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
@@ -100,31 +106,25 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
@@ -485,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,10 +493,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7402597402597403</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C4">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -654,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3090128755364807</v>
+        <v>0.1763565891472868</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>161</v>
+        <v>425</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2325581395348837</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,69 +722,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.875</v>
+      </c>
+      <c r="L6">
+        <v>98</v>
+      </c>
+      <c r="M6">
+        <v>98</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0.925</v>
-      </c>
-      <c r="L6">
-        <v>37</v>
-      </c>
-      <c r="M6">
-        <v>37</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2125</v>
-      </c>
-      <c r="C7">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>63</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7">
-        <v>0.8627450980392157</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -796,15 +772,15 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L8">
         <v>46</v>
@@ -822,21 +798,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -848,21 +824,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.775</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -874,21 +850,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.803921568627451</v>
+        <v>0.765625</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -900,21 +876,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7586206896551724</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -926,21 +902,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7413793103448276</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -952,21 +928,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.72</v>
+        <v>0.70625</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -978,21 +954,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.717948717948718</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1004,21 +980,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6923076923076923</v>
+        <v>0.62</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1030,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6712328767123288</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1056,21 +1032,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.625</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1082,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1108,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5454545454545454</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1134,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5305164319248826</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L21">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="M21">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1160,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5277777777777778</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L22">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="M22">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1186,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1212,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4883720930232558</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1238,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>66</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4857142857142857</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1264,33 +1240,59 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26">
+        <v>0.3717948717948718</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K26">
-        <v>0.4021739130434783</v>
-      </c>
-      <c r="L26">
-        <v>37</v>
-      </c>
-      <c r="M26">
-        <v>37</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>55</v>
+      <c r="K27">
+        <v>0.3221757322175732</v>
+      </c>
+      <c r="L27">
+        <v>77</v>
+      </c>
+      <c r="M27">
+        <v>77</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,73 +55,70 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
     <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -485,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +551,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +569,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +601,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6267123287671232</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C4">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D4">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +619,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +651,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1763565891472868</v>
+        <v>0.1821705426356589</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +669,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -704,13 +701,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1746031746031746</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -754,13 +751,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +777,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.796875</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +803,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7777777777777778</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -858,13 +855,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.765625</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="M11">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +881,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7450980392156863</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -936,13 +933,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.70625</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,13 +959,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6981132075471698</v>
+        <v>0.71875</v>
       </c>
       <c r="L15">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +985,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.62</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1011,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6031746031746031</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1037,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.5957446808510638</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,13 +1063,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5833333333333334</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1089,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.574468085106383</v>
+        <v>0.5013054830287206</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1115,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5091383812010444</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L21">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="M21">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1141,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.4705882352941176</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L22">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>180</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1167,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.449438202247191</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1193,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4203389830508474</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L24">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M24">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1219,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.410958904109589</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1245,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.3717948717948718</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,33 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27">
-        <v>0.3221757322175732</v>
-      </c>
-      <c r="L27">
-        <v>77</v>
-      </c>
-      <c r="M27">
-        <v>77</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,18 +55,24 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -79,46 +85,46 @@
     <t>free</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>increase</t>
@@ -482,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -551,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -569,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -593,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -601,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6027397260273972</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C4">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -619,19 +625,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -643,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -651,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1821705426356589</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -701,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1481481481481481</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -719,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -743,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -751,13 +757,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8536585365853658</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -769,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -777,13 +783,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.796875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -795,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -803,13 +809,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -829,13 +835,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.775</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -855,13 +861,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7264150943396226</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -881,13 +887,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7254901960784313</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -907,13 +913,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7253521126760564</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L13">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -925,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -933,13 +939,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7222222222222222</v>
+        <v>0.7375</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -951,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -959,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.71875</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -977,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -985,13 +991,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6507936507936508</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1011,13 +1017,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6041666666666666</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1029,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1037,13 +1043,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1055,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1063,13 +1069,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5851063829787234</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L19">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1081,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1089,13 +1095,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5013054830287206</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L20">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1107,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>191</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1115,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.4588235294117647</v>
+        <v>0.58</v>
       </c>
       <c r="L21">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1133,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>184</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1141,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.4383561643835616</v>
+        <v>0.4882506527415144</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1159,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>41</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1167,13 +1173,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4269662921348314</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1185,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>51</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1193,13 +1199,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4101694915254237</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L24">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1211,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1219,13 +1225,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.358974358974359</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1237,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>50</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1245,13 +1251,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.3389121338912134</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L26">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1263,7 +1269,59 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>158</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L27">
+        <v>27</v>
+      </c>
+      <c r="M27">
+        <v>27</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3263598326359833</v>
+      </c>
+      <c r="L28">
+        <v>78</v>
+      </c>
+      <c r="M28">
+        <v>78</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
